--- a/data/design_review.xlsx
+++ b/data/design_review.xlsx
@@ -1,40 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPCHR\OneDrive\바탕 화면\NQ6_Dashboard\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>발생일</t>
+  </si>
+  <si>
+    <t>차종</t>
+  </si>
+  <si>
+    <t>활동항목</t>
+  </si>
+  <si>
+    <t>개선현황</t>
+  </si>
+  <si>
+    <t>NQ6</t>
+  </si>
+  <si>
+    <t>문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고(사진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPC 신차품질팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPC 설계팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ROTATE BAR / FRT VANE 간섭
+    → ROTATE BAR 작동구간 확인
+    → 기존 GAP 보다 추가 GAP 확보 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계팀 검토 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DUCT / BEZEL 체결 불합리
+    → 하단(스크류), 상단(후크)
+    → 구속력 차이로 상단부 들뜸 발생 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SD RH DECO / BEZEL 체결 불합리
+    → 후크, 스크류 체겔부가 동일 영역에 집중
+    → 체결 포인트 분산 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. KNOB RUBBER 형상 재검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RR KNOB, FRT KNOB 체결 구조 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거차 문제점
+→ OV1K, RG3 PE ROTATE BAR , VANE 간섭 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="현대하모니 B"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,86 +161,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231239</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>795734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1744482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6449159" y="1176734"/>
+          <a:ext cx="888901" cy="948748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1226761</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>675238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2667001</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1761698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7444681" y="1056238"/>
+          <a:ext cx="1440240" cy="1086460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>880460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2689860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1585876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974079" y="3166460"/>
+          <a:ext cx="2933701" cy="705416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>822960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2621281</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1840529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360921" y="6918960"/>
+          <a:ext cx="1478280" cy="1017569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>548639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2697480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1796946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263640" y="4739639"/>
+          <a:ext cx="2651760" cy="1248307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,82 +699,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.69921875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="35.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>발생일</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>차종</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>활동항목</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>개선현황</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>적용일</t>
-        </is>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NQ6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>센터 에어벤트 디자인리뷰</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>진행중</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>46008</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4">
+        <v>46052</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>46008</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4">
+        <v>46052</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>46008</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4">
+        <v>46052</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>46008</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4">
+        <v>46052</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>46008</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4">
+        <v>46052</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/design_review.xlsx
+++ b/data/design_review.xlsx
@@ -703,7 +703,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="4">
-        <v>46052</v>
+        <v>46009</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>10</v>
